--- a/ehr-presentation/src/assets/template/patient_import.xlsx
+++ b/ehr-presentation/src/assets/template/patient_import.xlsx
@@ -16,47 +16,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Estate Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Employee Code</t>
   </si>
   <si>
-    <t>PF No.</t>
-  </si>
-  <si>
     <t>Employee Name</t>
   </si>
   <si>
-    <t>Father's Name</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>DOJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Division/Department Name
-</t>
-  </si>
-  <si>
-    <t>Challan</t>
-  </si>
-  <si>
-    <t>Line</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>DR Type</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Phone No.</t>
+  </si>
+  <si>
+    <t>Mobile Phone No.</t>
+  </si>
+  <si>
+    <t>Challan No.</t>
+  </si>
+  <si>
+    <t>Current Status</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Division No. ( House )</t>
+  </si>
+  <si>
+    <t>Line No.</t>
+  </si>
+  <si>
+    <t>House No.</t>
+  </si>
+  <si>
+    <t>Garden Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,18 +73,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -88,12 +89,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -101,33 +102,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,61 +407,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
-    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1"/>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
